--- a/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -56,6 +59,12 @@
     <t>Documentazione che comprovi possesso di ulteriore cittadinanza</t>
   </si>
   <si>
+    <t>Certificato di stato di famiglia</t>
+  </si>
+  <si>
+    <t>Certificato stesso di acquisto/riacquisto</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -86,6 +95,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -278,6 +290,81 @@
     <t>ulterioreCittadinanza</t>
   </si>
   <si>
+    <t>Madre</t>
+  </si>
+  <si>
+    <t>evento.madre</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneCittadinanza.genitoreConCittadinanza,=,2}</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>Indirizzo PEC</t>
+  </si>
+  <si>
+    <t>evento.madre.recapito</t>
+  </si>
+  <si>
+    <t>pec</t>
+  </si>
+  <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneCittadinanza.genitoreConCittadinanza,=,1}</t>
+  </si>
+  <si>
+    <t>evento.padre.recapito</t>
+  </si>
+  <si>
     <t>Atto collegato</t>
   </si>
   <si>
@@ -359,49 +446,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -432,6 +477,18 @@
   </si>
   <si>
     <t>indirizzoPostaAutorità</t>
+  </si>
+  <si>
+    <t>Genitore che ha trasmesso la cittadinanza</t>
+  </si>
+  <si>
+    <t>genitoreConCittadinanza</t>
+  </si>
+  <si>
+    <t>Cittadinanza genitore</t>
+  </si>
+  <si>
+    <t>tipoEventoCittadinanza</t>
   </si>
 </sst>
 </file>
@@ -490,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -502,6 +559,7 @@
     <col min="4" max="4" width="29.38671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="56.828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -523,1585 +581,2975 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>5</v>
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>9</v>
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>114</v>
+        <v>18</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>114</v>
+        <v>18</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>114</v>
+        <v>18</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>114</v>
+        <v>18</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E80" s="2" t="s">
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>9</v>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
@@ -3491,7 +3491,7 @@
         <v>153</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>36</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,55 +32,58 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Atto estero di nascita originale o copia autentica</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita dell'interessato</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di cittadinanza dell'interessato</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Documentazione che comprovi possesso di ulteriore cittadinanza</t>
+  </si>
+  <si>
+    <t>Certificato di stato di famiglia</t>
+  </si>
+  <si>
+    <t>Certificato stesso di acquisto/riacquisto</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Atto estero di nascita originale o copia autentica</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita dell'interessato</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di cittadinanza dell'interessato</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Documentazione che comprovi possesso di ulteriore cittadinanza</t>
-  </si>
-  <si>
-    <t>Certificato di stato di famiglia</t>
-  </si>
-  <si>
-    <t>Certificato stesso di acquisto/riacquisto</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -858,2698 +861,2698 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
@@ -299,7 +299,7 @@
     <t>evento.madre</t>
   </si>
   <si>
-    <t>{evento.trascrizioneCittadinanza.genitoreConCittadinanza,=,2}</t>
+    <t>evento.trascrizioneCittadinanza.genitoreConCittadinanza,=,2</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -362,7 +362,7 @@
     <t>evento.padre</t>
   </si>
   <si>
-    <t>{evento.trascrizioneCittadinanza.genitoreConCittadinanza,=,1}</t>
+    <t>evento.trascrizioneCittadinanza.genitoreConCittadinanza,=,1</t>
   </si>
   <si>
     <t>evento.padre.recapito</t>
@@ -449,7 +449,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -562,7 +562,7 @@
     <col min="4" max="4" width="29.38671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="56.828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="55.4453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
@@ -2666,7 +2666,7 @@
         <v>122</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>120</v>
@@ -2689,7 +2689,7 @@
         <v>124</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>120</v>
@@ -2712,7 +2712,7 @@
         <v>126</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>120</v>
@@ -2735,7 +2735,7 @@
         <v>128</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>120</v>
@@ -2758,7 +2758,7 @@
         <v>130</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>120</v>
@@ -2781,7 +2781,7 @@
         <v>132</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>120</v>
@@ -2804,7 +2804,7 @@
         <v>133</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>120</v>
@@ -2850,7 +2850,7 @@
         <v>136</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>120</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
@@ -826,7 +826,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="162">
   <si>
     <t>Sezione</t>
   </si>
@@ -209,6 +209,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -422,22 +428,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -550,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1263,7 +1269,7 @@
         <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>43</v>
@@ -1355,7 +1361,7 @@
         <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>43</v>
@@ -1387,7 +1393,7 @@
         <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>28</v>
@@ -1410,7 +1416,7 @@
         <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>28</v>
@@ -1433,7 +1439,7 @@
         <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>28</v>
@@ -1470,7 +1476,7 @@
         <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>43</v>
@@ -1479,7 +1485,7 @@
         <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>28</v>
@@ -1542,10 +1548,10 @@
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1559,16 +1565,16 @@
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1579,283 +1585,283 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>104</v>
@@ -1864,21 +1870,21 @@
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>105</v>
@@ -1887,67 +1893,67 @@
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>108</v>
@@ -1956,21 +1962,21 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>109</v>
@@ -1979,21 +1985,21 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>110</v>
@@ -2002,297 +2008,297 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>100</v>
@@ -2301,21 +2307,21 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>101</v>
@@ -2324,401 +2330,401 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2729,19 +2735,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2752,19 +2758,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2775,19 +2781,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2798,19 +2804,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2821,19 +2827,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2844,19 +2850,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2867,19 +2873,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2890,19 +2896,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2913,617 +2919,617 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="G125" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3534,24 +3540,116 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="C133" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
+      <c r="E134" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -455,7 +455,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -568,7 +571,7 @@
     <col min="4" max="4" width="29.38671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="55.4453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2971,7 +2974,7 @@
         <v>142</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>122</v>
@@ -3497,7 +3500,7 @@
         <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>13</v>
@@ -3517,19 +3520,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3540,19 +3543,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>20</v>
@@ -3563,10 +3566,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>13</v>
@@ -3575,7 +3578,7 @@
         <v>26</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3586,10 +3589,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -3598,7 +3601,7 @@
         <v>37</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3609,10 +3612,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>13</v>
@@ -3621,7 +3624,7 @@
         <v>92</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3632,10 +3635,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>13</v>
@@ -3644,7 +3647,7 @@
         <v>37</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="162">
   <si>
     <t>Sezione</t>
   </si>
@@ -456,9 +456,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2974,7 +2971,7 @@
         <v>142</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>122</v>
@@ -3500,7 +3497,7 @@
         <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>13</v>
@@ -3520,19 +3517,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="C129" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="E129" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3543,19 +3540,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>20</v>
@@ -3566,10 +3563,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>13</v>
@@ -3578,7 +3575,7 @@
         <v>26</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3589,10 +3586,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -3601,7 +3598,7 @@
         <v>37</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3612,10 +3609,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>13</v>
@@ -3624,7 +3621,7 @@
         <v>92</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3635,10 +3632,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>13</v>
@@ -3647,7 +3644,7 @@
         <v>37</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -456,6 +456,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2971,7 +2974,7 @@
         <v>142</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>122</v>
@@ -3497,7 +3500,7 @@
         <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>13</v>
@@ -3517,19 +3520,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3540,19 +3543,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>20</v>
@@ -3563,10 +3566,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>13</v>
@@ -3575,7 +3578,7 @@
         <v>26</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3586,10 +3589,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -3598,7 +3601,7 @@
         <v>37</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3609,10 +3612,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>13</v>
@@ -3621,7 +3624,7 @@
         <v>92</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3632,10 +3635,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>13</v>
@@ -3644,7 +3647,7 @@
         <v>37</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="173">
   <si>
     <t>Sezione</t>
   </si>
@@ -269,6 +269,30 @@
     <t>indirizzoResidenza</t>
   </si>
   <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
     <t>flag dichiarante</t>
   </si>
   <si>
@@ -351,6 +375,12 @@
   </si>
   <si>
     <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Indirizzo PEC</t>
@@ -559,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -569,7 +599,7 @@
     <col min="2" max="2" width="59.18359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="29.38671875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1502,7 +1532,7 @@
         <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>43</v>
@@ -1525,7 +1555,7 @@
         <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>43</v>
@@ -1548,7 +1578,7 @@
         <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>43</v>
@@ -1571,13 +1601,13 @@
         <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1591,13 +1621,13 @@
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>94</v>
@@ -1611,858 +1641,858 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>106</v>
@@ -2471,21 +2501,21 @@
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>107</v>
@@ -2494,21 +2524,21 @@
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>108</v>
@@ -2517,21 +2547,21 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>109</v>
@@ -2540,21 +2570,21 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>110</v>
@@ -2563,21 +2593,21 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>111</v>
@@ -2586,1073 +2616,1395 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="E143" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
+      <c r="E146" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="174">
   <si>
     <t>Sezione</t>
   </si>
@@ -161,6 +161,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -350,10 +356,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -589,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1118,7 +1121,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>43</v>
@@ -1210,7 +1213,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>43</v>
@@ -1242,7 +1245,7 @@
         <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>28</v>
@@ -1265,7 +1268,7 @@
         <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>28</v>
@@ -1288,7 +1291,7 @@
         <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>28</v>
@@ -1311,7 +1314,7 @@
         <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>28</v>
@@ -1325,7 +1328,7 @@
         <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>43</v>
@@ -1417,7 +1420,7 @@
         <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>43</v>
@@ -1449,7 +1452,7 @@
         <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>28</v>
@@ -1472,7 +1475,7 @@
         <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>28</v>
@@ -1495,7 +1498,7 @@
         <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>28</v>
@@ -1541,7 +1544,7 @@
         <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>28</v>
@@ -1624,7 +1627,7 @@
         <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>43</v>
@@ -1696,10 +1699,10 @@
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1713,16 +1716,16 @@
         <v>41</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1733,191 +1736,191 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>110</v>
@@ -1926,21 +1929,21 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>111</v>
@@ -1949,1206 +1952,1206 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3159,19 +3162,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3182,19 +3185,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3205,19 +3208,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3228,19 +3231,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3251,19 +3254,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3274,19 +3277,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3297,19 +3300,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3320,19 +3323,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3343,640 +3346,640 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3987,24 +3990,116 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D148" s="2" t="s">
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
+      <c r="E152" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -592,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1397,7 +1403,7 @@
         <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>43</v>
@@ -1420,7 +1426,7 @@
         <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>43</v>
@@ -1452,7 +1458,7 @@
         <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>28</v>
@@ -1475,7 +1481,7 @@
         <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>28</v>
@@ -1498,7 +1504,7 @@
         <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>28</v>
@@ -1521,7 +1527,7 @@
         <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>28</v>
@@ -1567,7 +1573,7 @@
         <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>28</v>
@@ -1650,7 +1656,7 @@
         <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>43</v>
@@ -1722,10 +1728,10 @@
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1739,16 +1745,16 @@
         <v>41</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1759,375 +1765,375 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>117</v>
@@ -2136,21 +2142,21 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>118</v>
@@ -2159,21 +2165,21 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>119</v>
@@ -2182,21 +2188,21 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>120</v>
@@ -2205,21 +2211,21 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>121</v>
@@ -2228,435 +2234,435 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>112</v>
@@ -2665,21 +2671,21 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>113</v>
@@ -2688,113 +2694,113 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>116</v>
@@ -2803,323 +2809,323 @@
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3128,99 +3134,99 @@
         <v>130</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3231,19 +3237,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3254,19 +3260,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3277,19 +3283,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3300,19 +3306,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3323,19 +3329,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3346,19 +3352,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3369,19 +3375,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3392,19 +3398,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3415,663 +3421,663 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G146" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4082,24 +4088,116 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D152" s="2" t="s">
+      <c r="C155" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E152" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
+      <c r="E156" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -83,6 +83,12 @@
     <t>197</t>
   </si>
   <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -363,6 +369,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -598,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -890,882 +902,882 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>103</v>
@@ -1774,228 +1786,228 @@
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>114</v>
@@ -2004,21 +2016,21 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>115</v>
@@ -2027,872 +2039,872 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>119</v>
@@ -2901,44 +2913,44 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>121</v>
@@ -2947,21 +2959,21 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>122</v>
@@ -2970,21 +2982,21 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>123</v>
@@ -2993,223 +3005,223 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114">
@@ -3217,22 +3229,22 @@
         <v>133</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="115">
@@ -3240,22 +3252,22 @@
         <v>133</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="116">
@@ -3263,22 +3275,22 @@
         <v>133</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="117">
@@ -3286,919 +3298,1034 @@
         <v>133</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F144" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="E151" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="G151" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
+      <c r="E152" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D155" s="2" t="s">
+      <c r="E155" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E155" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E156" s="2" t="s">
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>28</v>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="182">
   <si>
     <t>Sezione</t>
   </si>
@@ -489,6 +489,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -610,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3594,605 +3600,605 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F130" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>167</v>
@@ -4201,36 +4207,36 @@
         <v>13</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>30</v>
@@ -4238,22 +4244,22 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>30</v>
@@ -4261,16 +4267,16 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>175</v>
@@ -4284,16 +4290,16 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>177</v>
@@ -4307,7 +4313,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>178</v>
@@ -4316,7 +4322,7 @@
         <v>13</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>179</v>
@@ -4325,6 +4331,29 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
@@ -3905,7 +3905,7 @@
         <v>71</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>164</v>
@@ -3928,7 +3928,7 @@
         <v>118</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>164</v>
@@ -3937,7 +3937,7 @@
         <v>74</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>166</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="187">
   <si>
     <t>Sezione</t>
   </si>
@@ -179,6 +179,18 @@
     <t>sesso</t>
   </si>
   <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
+  </si>
+  <si>
     <t>Data nascita</t>
   </si>
   <si>
@@ -435,6 +447,9 @@
   </si>
   <si>
     <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Provincia registrazione</t>
@@ -616,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1237,7 +1252,7 @@
         <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>45</v>
@@ -1260,7 +1275,7 @@
         <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>45</v>
@@ -1306,7 +1321,7 @@
         <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>45</v>
@@ -1329,7 +1344,7 @@
         <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>45</v>
@@ -1338,7 +1353,7 @@
         <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>30</v>
@@ -1421,7 +1436,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>45</v>
@@ -1430,7 +1445,7 @@
         <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>30</v>
@@ -1444,7 +1459,7 @@
         <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>45</v>
@@ -1467,7 +1482,7 @@
         <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>45</v>
@@ -1490,7 +1505,7 @@
         <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>45</v>
@@ -1522,7 +1537,7 @@
         <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>30</v>
@@ -1637,7 +1652,7 @@
         <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>30</v>
@@ -1660,7 +1675,7 @@
         <v>92</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>30</v>
@@ -1683,7 +1698,7 @@
         <v>94</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>30</v>
@@ -1743,7 +1758,7 @@
         <v>99</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>45</v>
@@ -1766,7 +1781,7 @@
         <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>45</v>
@@ -1815,10 +1830,10 @@
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1832,13 +1847,13 @@
         <v>43</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>108</v>
@@ -1852,33 +1867,33 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
@@ -1887,386 +1902,386 @@
         <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>123</v>
@@ -2275,44 +2290,44 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>125</v>
@@ -2321,21 +2336,21 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>126</v>
@@ -2344,21 +2359,21 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>127</v>
@@ -2367,550 +2382,550 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>119</v>
@@ -2919,44 +2934,44 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>121</v>
@@ -2965,361 +2980,361 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118">
@@ -3327,22 +3342,22 @@
         <v>137</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="E118" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="119">
@@ -3350,22 +3365,22 @@
         <v>137</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="120">
@@ -3373,22 +3388,22 @@
         <v>137</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="121">
@@ -3396,22 +3411,22 @@
         <v>137</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="122">
@@ -3419,22 +3434,22 @@
         <v>137</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="123">
@@ -3442,781 +3457,781 @@
         <v>137</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157">
@@ -4224,22 +4239,22 @@
         <v>168</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E157" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="158">
@@ -4247,22 +4262,22 @@
         <v>168</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E158" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G158" s="2" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159">
@@ -4270,22 +4285,22 @@
         <v>168</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160">
@@ -4293,22 +4308,22 @@
         <v>168</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161">
@@ -4316,22 +4331,22 @@
         <v>168</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
     </row>
     <row r="162">
@@ -4339,21 +4354,205 @@
         <v>168</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D162" s="2" t="s">
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E162" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
+      <c r="E168" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="191">
   <si>
     <t>Sezione</t>
   </si>
@@ -125,15 +125,192 @@
     <t>minuto</t>
   </si>
   <si>
+    <t xml:space="preserve">Officiante </t>
+  </si>
+  <si>
+    <t>Ufficiale di stato civile delegato al giuramento di cittadinanza</t>
+  </si>
+  <si>
+    <t>evento.datiEventoCittadinanza</t>
+  </si>
+  <si>
+    <t>officiante</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
+    <t>Nazionalità</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
     <t>Dati Generali</t>
   </si>
   <si>
     <t>Riassunto della dichiarazione</t>
   </si>
   <si>
-    <t>evento.datiEventoCittadinanza</t>
-  </si>
-  <si>
     <t>riassuntoDichiarazione</t>
   </si>
   <si>
@@ -146,159 +323,57 @@
     <t>Intestatario</t>
   </si>
   <si>
-    <t>Cognome</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
     <t>Codice Fiscale</t>
   </si>
   <si>
     <t>codiceFiscale</t>
   </si>
   <si>
-    <t>Identificativo unico nazionale</t>
-  </si>
-  <si>
-    <t>idANPR</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Formato Data Nascita</t>
-  </si>
-  <si>
-    <t>idFormatodata</t>
-  </si>
-  <si>
-    <t>Formato Data Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>formatodata</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
     <t>Stato Nascita</t>
   </si>
   <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
     <t>Stato Nascita - Descrizione</t>
   </si>
   <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
     <t>Provincia Nascita</t>
   </si>
   <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
     <t>Provincia Nascita - Descrizione</t>
   </si>
   <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
     <t>Comune Nascita</t>
   </si>
   <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
     <t>Comune Nascita - Descrizione</t>
   </si>
   <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Località estera</t>
-  </si>
-  <si>
-    <t>localitaEsteraNascita</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
     <t>Nazionalità   - Descrizione</t>
   </si>
   <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Residenza non nota</t>
-  </si>
-  <si>
-    <t>flagIrreperibile</t>
-  </si>
-  <si>
     <t>Stato Residenza</t>
   </si>
   <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
     <t>Stato Residenza - Descrizione</t>
   </si>
   <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
     <t>Provincia Residenza</t>
   </si>
   <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
     <t>Provincia Residenza - Descrizione</t>
   </si>
   <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
     <t>Comune Residenza</t>
   </si>
   <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
     <t>Comune Residenza - Descrizione</t>
   </si>
   <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
     <t>Indirizzo Residenza</t>
   </si>
   <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
     <t>Provincia AIRE</t>
   </si>
   <si>
@@ -323,24 +398,9 @@
     <t>nomeComuneAIRE</t>
   </si>
   <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
     <t>flag firmatario</t>
   </si>
   <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
     <t>Ulteriore cittadinanza di cui è in possesso</t>
   </si>
   <si>
@@ -362,54 +422,12 @@
     <t>evento.trascrizioneCittadinanza.genitoreConCittadinanza,=,2</t>
   </si>
   <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalità - Descrizione</t>
-  </si>
-  <si>
     <t>Comprensione</t>
   </si>
   <si>
     <t>tipoImpedimento</t>
   </si>
   <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
     <t>Trasmissione residenza estera</t>
   </si>
   <si>
@@ -449,9 +467,6 @@
     <t>idAnsc</t>
   </si>
   <si>
-    <t>opzionale</t>
-  </si>
-  <si>
     <t>Provincia registrazione</t>
   </si>
   <si>
@@ -528,9 +543,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -631,7 +643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H198"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1103,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
@@ -1111,59 +1123,59 @@
         <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>48</v>
@@ -1172,12 +1184,12 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>49</v>
@@ -1186,7 +1198,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>50</v>
@@ -1195,12 +1207,12 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>51</v>
@@ -1209,7 +1221,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>52</v>
@@ -1218,21 +1230,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>54</v>
@@ -1241,12 +1253,12 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>55</v>
@@ -1255,7 +1267,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>56</v>
@@ -1264,12 +1276,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>57</v>
@@ -1278,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>58</v>
@@ -1287,21 +1299,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>60</v>
@@ -1310,21 +1322,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>62</v>
@@ -1333,21 +1345,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>64</v>
@@ -1356,12 +1368,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>65</v>
@@ -1370,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>66</v>
@@ -1379,12 +1391,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>67</v>
@@ -1393,21 +1405,21 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>69</v>
@@ -1416,7 +1428,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>70</v>
@@ -1425,12 +1437,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>71</v>
@@ -1439,21 +1451,21 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>73</v>
@@ -1462,7 +1474,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>74</v>
@@ -1471,21 +1483,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>76</v>
@@ -1494,21 +1506,21 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>78</v>
@@ -1517,12 +1529,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>79</v>
@@ -1531,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>80</v>
@@ -1540,12 +1552,12 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>81</v>
@@ -1554,7 +1566,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>82</v>
@@ -1563,12 +1575,12 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>83</v>
@@ -1577,21 +1589,21 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>85</v>
@@ -1600,7 +1612,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>86</v>
@@ -1609,12 +1621,12 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>87</v>
@@ -1623,21 +1635,21 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>89</v>
@@ -1646,7 +1658,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>90</v>
@@ -1655,58 +1667,58 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>95</v>
@@ -1715,7 +1727,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>96</v>
@@ -1724,24 +1736,24 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1752,19 +1764,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1775,22 +1787,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>30</v>
@@ -1798,19 +1810,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1821,19 +1833,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1844,19 +1856,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1867,19 +1879,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1890,19 +1902,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1913,1583 +1925,1583 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3500,19 +3512,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3523,19 +3535,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3546,19 +3558,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3569,22 +3581,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>145</v>
@@ -3592,19 +3604,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3615,22 +3627,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>145</v>
@@ -3638,22 +3650,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>145</v>
@@ -3661,19 +3673,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3684,19 +3696,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3707,22 +3719,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>145</v>
@@ -3730,22 +3742,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>145</v>
@@ -3753,19 +3765,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3776,646 +3788,646 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
     </row>
     <row r="165">
@@ -4423,22 +4435,22 @@
         <v>173</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D165" s="2" t="s">
+      <c r="E165" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="G165" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="166">
@@ -4446,22 +4458,22 @@
         <v>173</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>30</v>
+        <v>176</v>
       </c>
     </row>
     <row r="167">
@@ -4469,22 +4481,22 @@
         <v>173</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>30</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168">
@@ -4492,22 +4504,22 @@
         <v>173</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>30</v>
+        <v>176</v>
       </c>
     </row>
     <row r="169">
@@ -4515,22 +4527,22 @@
         <v>173</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>183</v>
+        <v>51</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>30</v>
+        <v>176</v>
       </c>
     </row>
     <row r="170">
@@ -4538,21 +4550,665 @@
         <v>173</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D170" s="2" t="s">
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="E196" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>30</v>
       </c>
     </row>
